--- a/data/xlsx/effects.xlsx
+++ b/data/xlsx/effects.xlsx
@@ -12,135 +12,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Causes frost buildup ()</t>
+  </si>
+  <si>
+    <t>Causes poison buildup ()</t>
+  </si>
+  <si>
+    <t>Causes blood loss buildup ()</t>
+  </si>
+  <si>
+    <t>Causes scarlet rot buildup ()</t>
+  </si>
+  <si>
+    <t>Causes sleep buildup ()</t>
+  </si>
+  <si>
+    <t>Causes slight scarlet rot buildup ()</t>
+  </si>
+  <si>
+    <t>Causes madness buildup ()</t>
+  </si>
+  <si>
+    <t>Boosts Crystalian sorcery</t>
+  </si>
+  <si>
+    <t>Boosts lava sorcery</t>
+  </si>
+  <si>
+    <t>Boosts full moon sorcery</t>
+  </si>
+  <si>
+    <t>Boosts Stonedigger sorcery</t>
+  </si>
+  <si>
+    <t>Boosts Glintblade sorcery</t>
+  </si>
+  <si>
+    <t>Boosts death sorcery</t>
+  </si>
+  <si>
+    <t>Boosts Carian sword sorcery</t>
+  </si>
+  <si>
+    <t>Boosts gravity sorcery</t>
+  </si>
+  <si>
+    <t>Boosts thorn sorcery</t>
+  </si>
+  <si>
+    <t>Boosts invisibility sorcery</t>
+  </si>
+  <si>
+    <t>Boosts godslayer incantations</t>
+  </si>
+  <si>
+    <t>Boosts Giants' Flame incantations</t>
+  </si>
+  <si>
+    <t>Boosts Dragon Cult incantations</t>
+  </si>
+  <si>
+    <t>Boosts bestial incantations</t>
+  </si>
+  <si>
+    <t>Boosts Fundamentalist incantations</t>
+  </si>
+  <si>
+    <t>Boosts Dragon Communion incantations</t>
+  </si>
+  <si>
+    <t>Boosts Frenzied Flame incantations</t>
+  </si>
+  <si>
+    <t>Causes slight madness buildup ()</t>
+  </si>
+  <si>
+    <t>Rune Gain on Hit</t>
+  </si>
+  <si>
+    <t>Boost Incantation Power</t>
+  </si>
+  <si>
+    <t>Restore HP on Kill</t>
+  </si>
+  <si>
+    <t>Restore FP on Kill</t>
+  </si>
+  <si>
+    <t>Restore HP on Hit</t>
+  </si>
+  <si>
+    <t>Enhance Roar/Breath Attack</t>
+  </si>
+  <si>
+    <t>Raise Immunity</t>
+  </si>
+  <si>
+    <t>Boost Absorption</t>
+  </si>
+  <si>
+    <t>Raise Vitality</t>
+  </si>
+  <si>
+    <t>Repels Beasts</t>
+  </si>
+  <si>
+    <t>Raise Focus</t>
+  </si>
+  <si>
+    <t>Raise Robustness</t>
+  </si>
+  <si>
+    <t>Raise Immunity, Robustness and Focus</t>
+  </si>
+  <si>
+    <t>Boost Absorption and Damage at Low HP</t>
+  </si>
+  <si>
+    <t>Boost Stamina Recovery</t>
+  </si>
+  <si>
+    <t>Grant HP Restoration</t>
+  </si>
+  <si>
     <t>desc</t>
-  </si>
-  <si>
-    <t>Causes frost buildup ()</t>
-  </si>
-  <si>
-    <t>Causes poison buildup ()</t>
-  </si>
-  <si>
-    <t>Causes blood loss buildup ()</t>
-  </si>
-  <si>
-    <t>Causes scarlet rot buildup ()</t>
-  </si>
-  <si>
-    <t>Causes sleep buildup ()</t>
-  </si>
-  <si>
-    <t>Causes slight scarlet rot buildup ()</t>
-  </si>
-  <si>
-    <t>Causes madness buildup ()</t>
-  </si>
-  <si>
-    <t>Boosts Crystalian sorcery</t>
-  </si>
-  <si>
-    <t>Boosts lava sorcery</t>
-  </si>
-  <si>
-    <t>Boosts full moon sorcery</t>
-  </si>
-  <si>
-    <t>Boosts Stonedigger sorcery</t>
-  </si>
-  <si>
-    <t>Boosts Glintblade sorcery</t>
-  </si>
-  <si>
-    <t>Boosts death sorcery</t>
-  </si>
-  <si>
-    <t>Boosts Carian sword sorcery</t>
-  </si>
-  <si>
-    <t>Boosts gravity sorcery</t>
-  </si>
-  <si>
-    <t>Boosts thorn sorcery</t>
-  </si>
-  <si>
-    <t>Boosts invisibility sorcery</t>
-  </si>
-  <si>
-    <t>Boosts godslayer incantations</t>
-  </si>
-  <si>
-    <t>Boosts Giants' Flame incantations</t>
-  </si>
-  <si>
-    <t>Boosts Dragon Cult incantations</t>
-  </si>
-  <si>
-    <t>Boosts bestial incantations</t>
-  </si>
-  <si>
-    <t>Boosts Fundamentalist incantations</t>
-  </si>
-  <si>
-    <t>Boosts Dragon Communion incantations</t>
-  </si>
-  <si>
-    <t>Boosts Frenzied Flame incantations</t>
-  </si>
-  <si>
-    <t>Causes slight madness buildup ()</t>
-  </si>
-  <si>
-    <t>Rune Gain on Hit</t>
-  </si>
-  <si>
-    <t>Boost Incantation Power</t>
-  </si>
-  <si>
-    <t>Restore HP on Kill</t>
-  </si>
-  <si>
-    <t>Restore FP on Kill</t>
-  </si>
-  <si>
-    <t>Restore HP on Hit</t>
-  </si>
-  <si>
-    <t>Enhance Roar/Breath Attack</t>
-  </si>
-  <si>
-    <t>Raise Immunity</t>
-  </si>
-  <si>
-    <t>Boost Absorption</t>
-  </si>
-  <si>
-    <t>Raise Vitality</t>
-  </si>
-  <si>
-    <t>Repels Beasts</t>
-  </si>
-  <si>
-    <t>Raise Focus</t>
-  </si>
-  <si>
-    <t>Raise Robustness</t>
-  </si>
-  <si>
-    <t>Raise Immunity, Robustness and Focus</t>
-  </si>
-  <si>
-    <t>Boost Absorption and Damage at Low HP</t>
-  </si>
-  <si>
-    <t>Boost Stamina Recovery</t>
-  </si>
-  <si>
-    <t>Grant HP Restoration</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
